--- a/prd.xlsx
+++ b/prd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Python\Cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A00116-5A36-41A3-A6C3-813427CF4EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E4226F-960F-4F47-A0C2-7B2F41404252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>GALOCHA LACINHO BB</t>
   </si>
   <si>
-    <t>CAMISETA SILK SUNSET</t>
-  </si>
-  <si>
     <t>CONJ REGATA COOL BEA</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>DESCRICAO</t>
+  </si>
+  <si>
+    <t>CAMISETA SILK SUNSET PRETA G</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -453,19 +453,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>110</v>
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>11.99</v>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>50</v>
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4">
         <v>30</v>
@@ -541,10 +541,10 @@
         <v>1375693</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4">
         <v>45</v>
@@ -558,10 +558,10 @@
         <v>1376203</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>40</v>
@@ -575,10 +575,10 @@
         <v>1376639</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>38</v>
@@ -592,10 +592,10 @@
         <v>1377279</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>38</v>
@@ -609,10 +609,10 @@
         <v>1377568</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4">
         <v>40</v>
@@ -623,13 +623,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>39.99</v>
